--- a/minimal dataset.xlsx
+++ b/minimal dataset.xlsx
@@ -1,34 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr codeName="Questa_cartella_di_lavoro"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olgap\Desktop\achieve\DOTTORATO\HOPPING\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cristina\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAE0E0E-1974-42FB-A395-3DE3067B76C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="porcatroia" sheetId="1" r:id="rId1"/>
+    <sheet name="dataset" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -55,8 +45,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -428,7 +418,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Foglio1"/>
   <dimension ref="A1:H74"/>
   <sheetViews>
@@ -436,14 +426,14 @@
       <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultColWidth="11.08203125" defaultRowHeight="16" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="7.921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.23046875"/>
-    <col min="3" max="10" width="15.15234375" customWidth="1"/>
+    <col min="1" max="1" width="7.9140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.25"/>
+    <col min="3" max="10" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -469,7 +459,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2">
         <v>1</v>
       </c>
@@ -495,7 +485,7 @@
         <v>32.299999999999997</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -509,7 +499,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -535,7 +525,7 @@
         <v>33.299999999999997</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>2</v>
       </c>
@@ -549,7 +539,7 @@
         <v>2.46</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>3</v>
       </c>
@@ -575,7 +565,7 @@
         <v>35.700000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>3</v>
       </c>
@@ -589,7 +579,7 @@
         <v>2.79</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>4</v>
       </c>
@@ -615,7 +605,7 @@
         <v>28.2</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>4</v>
       </c>
@@ -629,7 +619,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>5</v>
       </c>
@@ -655,7 +645,7 @@
         <v>41.1</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>5</v>
       </c>
@@ -669,7 +659,7 @@
         <v>1.63</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>6</v>
       </c>
@@ -695,7 +685,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>6</v>
       </c>
@@ -709,7 +699,7 @@
         <v>2.31</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>7</v>
       </c>
@@ -735,7 +725,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>7</v>
       </c>
@@ -749,7 +739,7 @@
         <v>2.63</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>8</v>
       </c>
@@ -775,7 +765,7 @@
         <v>43.3</v>
       </c>
     </row>
-    <row r="17" spans="1:8">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>8</v>
       </c>
@@ -789,7 +779,7 @@
         <v>2.09</v>
       </c>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>9</v>
       </c>
@@ -815,7 +805,7 @@
         <v>30.1</v>
       </c>
     </row>
-    <row r="19" spans="1:8">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>9</v>
       </c>
@@ -829,7 +819,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>10</v>
       </c>
@@ -855,7 +845,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:8">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>10</v>
       </c>
@@ -869,7 +859,7 @@
         <v>2.4500000000000002</v>
       </c>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>11</v>
       </c>
@@ -895,7 +885,7 @@
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:8">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>11</v>
       </c>
@@ -909,7 +899,7 @@
         <v>1.36</v>
       </c>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>12</v>
       </c>
@@ -935,7 +925,7 @@
         <v>39.4</v>
       </c>
     </row>
-    <row r="25" spans="1:8">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>12</v>
       </c>
@@ -949,7 +939,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>13</v>
       </c>
@@ -975,7 +965,7 @@
         <v>37.700000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>13</v>
       </c>
@@ -989,7 +979,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>14</v>
       </c>
@@ -1015,7 +1005,7 @@
         <v>26.7</v>
       </c>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>14</v>
       </c>
@@ -1029,7 +1019,7 @@
         <v>1.96</v>
       </c>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>15</v>
       </c>
@@ -1055,7 +1045,7 @@
         <v>31.9</v>
       </c>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>15</v>
       </c>
@@ -1069,7 +1059,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>16</v>
       </c>
@@ -1095,7 +1085,7 @@
         <v>32.799999999999997</v>
       </c>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>16</v>
       </c>
@@ -1109,7 +1099,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>17</v>
       </c>
@@ -1135,7 +1125,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="35" spans="1:8">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>17</v>
       </c>
@@ -1149,7 +1139,7 @@
         <v>2.92</v>
       </c>
     </row>
-    <row r="36" spans="1:8">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>18</v>
       </c>
@@ -1175,7 +1165,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="37" spans="1:8">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>18</v>
       </c>
@@ -1189,7 +1179,7 @@
         <v>3.2</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>19</v>
       </c>
@@ -1215,7 +1205,7 @@
         <v>38.299999999999997</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>19</v>
       </c>
@@ -1229,7 +1219,7 @@
         <v>1.79</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>20</v>
       </c>
@@ -1255,7 +1245,7 @@
         <v>35.1</v>
       </c>
     </row>
-    <row r="41" spans="1:8">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>20</v>
       </c>
@@ -1269,7 +1259,7 @@
         <v>2.29</v>
       </c>
     </row>
-    <row r="42" spans="1:8">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>21</v>
       </c>
@@ -1295,7 +1285,7 @@
         <v>31.4</v>
       </c>
     </row>
-    <row r="43" spans="1:8">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>21</v>
       </c>
@@ -1309,7 +1299,7 @@
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="44" spans="1:8">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>22</v>
       </c>
@@ -1335,7 +1325,7 @@
         <v>37.799999999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:8">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>22</v>
       </c>
@@ -1349,7 +1339,7 @@
         <v>2.34</v>
       </c>
     </row>
-    <row r="46" spans="1:8">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>23</v>
       </c>
@@ -1375,7 +1365,7 @@
         <v>29.6</v>
       </c>
     </row>
-    <row r="47" spans="1:8">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47">
         <v>23</v>
       </c>
@@ -1389,7 +1379,7 @@
         <v>2.96</v>
       </c>
     </row>
-    <row r="48" spans="1:8">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48">
         <v>24</v>
       </c>
@@ -1415,7 +1405,7 @@
         <v>33.4</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49">
         <v>24</v>
       </c>
@@ -1429,7 +1419,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="50" spans="1:8">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50">
         <v>25</v>
       </c>
@@ -1455,7 +1445,7 @@
         <v>39.799999999999997</v>
       </c>
     </row>
-    <row r="51" spans="1:8">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51">
         <v>25</v>
       </c>
@@ -1469,7 +1459,7 @@
         <v>1.88</v>
       </c>
     </row>
-    <row r="52" spans="1:8">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52">
         <v>26</v>
       </c>
@@ -1495,7 +1485,7 @@
         <v>29.1</v>
       </c>
     </row>
-    <row r="53" spans="1:8">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53">
         <v>26</v>
       </c>
@@ -1509,7 +1499,7 @@
         <v>2.95</v>
       </c>
     </row>
-    <row r="54" spans="1:8">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54">
         <v>27</v>
       </c>
@@ -1535,7 +1525,7 @@
         <v>37.6</v>
       </c>
     </row>
-    <row r="55" spans="1:8">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55">
         <v>27</v>
       </c>
@@ -1549,7 +1539,7 @@
         <v>2.6</v>
       </c>
     </row>
-    <row r="56" spans="1:8">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56">
         <v>28</v>
       </c>
@@ -1575,7 +1565,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="57" spans="1:8">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57">
         <v>28</v>
       </c>
@@ -1589,7 +1579,7 @@
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="74" ht="17" customHeight="1"/>
+    <row r="74" ht="17" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
